--- a/chapter5/input/データ分割後のデータサンプル.xlsx
+++ b/chapter5/input/データ分割後のデータサンプル.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\副業関連\独立\執筆\practical-mi-guide\chapter4\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\副業関連\独立\workdir\practical-mi-guide\chapter5\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598CA73D-FA2E-42D7-AE1F-3D8456AF1EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE5A942-63B9-42B4-B929-499E54D3E6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="3520" windowWidth="31830" windowHeight="17850" activeTab="3" xr2:uid="{DBCA48D4-3B36-453F-8532-6E5020BBCB3A}"/>
+    <workbookView xWindow="3720" yWindow="4510" windowWidth="31820" windowHeight="14230" activeTab="3" xr2:uid="{DBCA48D4-3B36-453F-8532-6E5020BBCB3A}"/>
   </bookViews>
   <sheets>
     <sheet name="処方" sheetId="2" r:id="rId1"/>
@@ -4457,7 +4457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED16DBB-B38F-4F2A-A654-E40D8D4476A5}">
   <dimension ref="B3:H46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6721,7 +6721,7 @@
         <v>100</v>
       </c>
       <c r="J27">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">

--- a/chapter5/input/データ分割後のデータサンプル.xlsx
+++ b/chapter5/input/データ分割後のデータサンプル.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\副業関連\独立\workdir\practical-mi-guide\chapter5\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE5A942-63B9-42B4-B929-499E54D3E6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D87BF4C-DA8D-41B8-A184-A8E08063BA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="4510" windowWidth="31820" windowHeight="14230" activeTab="3" xr2:uid="{DBCA48D4-3B36-453F-8532-6E5020BBCB3A}"/>
+    <workbookView xWindow="4860" yWindow="4860" windowWidth="28800" windowHeight="15410" activeTab="5" xr2:uid="{DBCA48D4-3B36-453F-8532-6E5020BBCB3A}"/>
   </bookViews>
   <sheets>
     <sheet name="処方" sheetId="2" r:id="rId1"/>
@@ -1177,11 +1172,11 @@
     <t>32－38</t>
   </si>
   <si>
-    <t>耐擦過性(n10</t>
+    <t>PP_033</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>PP_033</t>
+    <t>耐擦過性</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2340,7 +2335,7 @@
     <tableColumn id="14" xr3:uid="{452371C0-3741-4BCC-9E40-E7FA6D2DD116}" name="n8"/>
     <tableColumn id="15" xr3:uid="{20DC4FA0-CB1B-41F4-829E-C15FBE7F76BC}" name="n9"/>
     <tableColumn id="16" xr3:uid="{02129812-F8B3-476E-92FC-7C572BEF1BB9}" name="n10"/>
-    <tableColumn id="18" xr3:uid="{AF4B76A5-1C5C-45F9-9E7A-287062E073BD}" name="耐擦過性(n10" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{AF4B76A5-1C5C-45F9-9E7A-287062E073BD}" name="耐擦過性" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(耐擦過性[[#This Row],[n1]:[n10]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4447,8 +4442,9 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5321,8 +5317,9 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6162,8 +6159,9 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6172,7 +6170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4A6D75-B584-47CB-9D3C-EE12CEA5516B}">
   <dimension ref="B4:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7012,7 +7010,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -7039,8 +7037,9 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7646,8 +7645,9 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7656,7 +7656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF6D764-B78F-42A5-9BE9-443EEA628487}">
   <dimension ref="B4:R39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7722,7 +7722,7 @@
         <v>278</v>
       </c>
       <c r="R6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.55000000000000004">
@@ -9510,8 +9510,9 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>